--- a/data/trans_orig/CONS_ALER-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/CONS_ALER-Estudios-trans_orig.xlsx
@@ -545,7 +545,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para la alergía o el asma en País Vasco</t>
+          <t>Consumo de medicamentos para la alergía o el asma en País Vasco (tasa de respuesta: 99,45%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -2156,7 +2156,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para la alergía o el asma en Andalucia</t>
+          <t>Consumo de medicamentos para la alergía o el asma en Andalucia (tasa de respuesta: 99,86%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3767,7 +3767,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para la alergía o el asma en C.Valenciana</t>
+          <t>Consumo de medicamentos para la alergía o el asma en C.Valenciana (tasa de respuesta: 99,74%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/CONS_ALER-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/CONS_ALER-Estudios-trans_orig.xlsx
@@ -735,32 +735,32 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2607</t>
+          <t>3092</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1618</t>
+          <t>1881</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>4288</t>
+          <t>4765</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>2,96%</t>
+          <t>3,75%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>1,84%</t>
+          <t>2,28%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>4,87%</t>
+          <t>5,77%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -770,32 +770,32 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>4531</t>
+          <t>5128</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>2990</t>
+          <t>3523</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>6739</t>
+          <t>7462</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>3,55%</t>
+          <t>4,22%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>2,34%</t>
+          <t>2,9%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>5,28%</t>
+          <t>6,14%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -805,32 +805,32 @@
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>7138</t>
+          <t>8220</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>5047</t>
+          <t>6062</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>9764</t>
+          <t>11010</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>3,31%</t>
+          <t>4,03%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>2,34%</t>
+          <t>2,97%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>4,52%</t>
+          <t>5,4%</t>
         </is>
       </c>
     </row>
@@ -848,32 +848,32 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>85457</t>
+          <t>79450</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>83776</t>
+          <t>77777</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>86446</t>
+          <t>80661</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>97,04%</t>
+          <t>96,25%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>95,13%</t>
+          <t>94,23%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>98,16%</t>
+          <t>97,72%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -883,32 +883,32 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>123213</t>
+          <t>116324</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>121005</t>
+          <t>113990</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>124754</t>
+          <t>117929</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>96,45%</t>
+          <t>95,78%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>94,72%</t>
+          <t>93,86%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>97,66%</t>
+          <t>97,1%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -918,32 +918,32 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>208671</t>
+          <t>195774</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>206045</t>
+          <t>192984</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>210762</t>
+          <t>197932</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>96,69%</t>
+          <t>95,97%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>95,48%</t>
+          <t>94,6%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>97,66%</t>
+          <t>97,03%</t>
         </is>
       </c>
     </row>
@@ -961,17 +961,17 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>88064</t>
+          <t>82542</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>88064</t>
+          <t>82542</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>88064</t>
+          <t>82542</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -996,17 +996,17 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>127744</t>
+          <t>121452</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>127744</t>
+          <t>121452</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>127744</t>
+          <t>121452</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -1031,17 +1031,17 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>215809</t>
+          <t>203994</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>215809</t>
+          <t>203994</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>215809</t>
+          <t>203994</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -1078,32 +1078,32 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>13994</t>
+          <t>12659</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>10841</t>
+          <t>10013</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>18188</t>
+          <t>16206</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,09%</t>
+          <t>2,74%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,39%</t>
+          <t>2,17%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>4,01%</t>
+          <t>3,51%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -1113,32 +1113,32 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>18328</t>
+          <t>18462</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>15220</t>
+          <t>15200</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>22962</t>
+          <t>22891</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>4,24%</t>
+          <t>4,15%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>3,52%</t>
+          <t>3,42%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>5,32%</t>
+          <t>5,15%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -1148,32 +1148,32 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>32322</t>
+          <t>31121</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>27399</t>
+          <t>27216</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>37471</t>
+          <t>36742</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>3,65%</t>
+          <t>3,43%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>3,09%</t>
+          <t>3,0%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>4,23%</t>
+          <t>4,06%</t>
         </is>
       </c>
     </row>
@@ -1191,32 +1191,32 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>439497</t>
+          <t>449020</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>435303</t>
+          <t>445473</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>442650</t>
+          <t>451666</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>96,91%</t>
+          <t>97,26%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>95,99%</t>
+          <t>96,49%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>97,61%</t>
+          <t>97,83%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1226,32 +1226,32 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>413474</t>
+          <t>425895</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>408840</t>
+          <t>421466</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>416582</t>
+          <t>429157</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>95,76%</t>
+          <t>95,85%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>94,68%</t>
+          <t>94,85%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>96,48%</t>
+          <t>96,58%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -1261,32 +1261,32 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>852971</t>
+          <t>874914</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>847822</t>
+          <t>869293</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>857894</t>
+          <t>878819</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>96,35%</t>
+          <t>96,57%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>95,77%</t>
+          <t>95,94%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>96,91%</t>
+          <t>97,0%</t>
         </is>
       </c>
     </row>
@@ -1304,17 +1304,17 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>453491</t>
+          <t>461679</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>453491</t>
+          <t>461679</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>453491</t>
+          <t>461679</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1339,17 +1339,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>431802</t>
+          <t>444357</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>431802</t>
+          <t>444357</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>431802</t>
+          <t>444357</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1374,17 +1374,17 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>885293</t>
+          <t>906035</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>885293</t>
+          <t>906035</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>885293</t>
+          <t>906035</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1421,32 +1421,32 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>5074</t>
+          <t>5616</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3481</t>
+          <t>3781</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>7460</t>
+          <t>8070</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>3,35%</t>
+          <t>3,2%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>2,3%</t>
+          <t>2,15%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>4,92%</t>
+          <t>4,6%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1456,32 +1456,32 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>8250</t>
+          <t>7731</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>6089</t>
+          <t>5618</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>11123</t>
+          <t>10922</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>4,25%</t>
+          <t>3,39%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>3,13%</t>
+          <t>2,46%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>5,73%</t>
+          <t>4,79%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -1491,32 +1491,32 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>13324</t>
+          <t>13347</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>10590</t>
+          <t>10237</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>16845</t>
+          <t>16575</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>3,85%</t>
+          <t>3,31%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>3,06%</t>
+          <t>2,54%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>4,87%</t>
+          <t>4,11%</t>
         </is>
       </c>
     </row>
@@ -1534,32 +1534,32 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>146551</t>
+          <t>169945</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>144165</t>
+          <t>167491</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>148144</t>
+          <t>171780</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>96,65%</t>
+          <t>96,8%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>95,08%</t>
+          <t>95,4%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>97,7%</t>
+          <t>97,85%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1569,32 +1569,32 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>185987</t>
+          <t>220263</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>183114</t>
+          <t>217072</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>188148</t>
+          <t>222376</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>95,75%</t>
+          <t>96,61%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>94,27%</t>
+          <t>95,21%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>96,87%</t>
+          <t>97,54%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -1604,32 +1604,32 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>332539</t>
+          <t>390208</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>329018</t>
+          <t>386980</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>335273</t>
+          <t>393318</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>96,15%</t>
+          <t>96,69%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>95,13%</t>
+          <t>95,89%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>96,94%</t>
+          <t>97,46%</t>
         </is>
       </c>
     </row>
@@ -1647,17 +1647,17 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>151625</t>
+          <t>175561</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>151625</t>
+          <t>175561</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>151625</t>
+          <t>175561</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1682,17 +1682,17 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>194237</t>
+          <t>227994</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>194237</t>
+          <t>227994</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>194237</t>
+          <t>227994</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -1717,17 +1717,17 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>345863</t>
+          <t>403555</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>345863</t>
+          <t>403555</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>345863</t>
+          <t>403555</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -1764,32 +1764,32 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>21675</t>
+          <t>21368</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>18216</t>
+          <t>17662</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>26799</t>
+          <t>25102</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>3,13%</t>
+          <t>2,97%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,63%</t>
+          <t>2,45%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>3,87%</t>
+          <t>3,49%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1799,67 +1799,67 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>31109</t>
+          <t>31321</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>26207</t>
+          <t>26565</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>36009</t>
+          <t>36810</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>4,13%</t>
+          <t>3,95%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
+          <t>3,35%</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>4,64%</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>308</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>52689</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>46585</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>58950</t>
+        </is>
+      </c>
+      <c r="U13" s="2" t="inlineStr">
+        <is>
           <t>3,48%</t>
         </is>
       </c>
-      <c r="P13" s="2" t="inlineStr">
-        <is>
-          <t>4,78%</t>
-        </is>
-      </c>
-      <c r="Q13" s="2" t="inlineStr">
-        <is>
-          <t>308</t>
-        </is>
-      </c>
-      <c r="R13" s="2" t="inlineStr">
-        <is>
-          <t>52784</t>
-        </is>
-      </c>
-      <c r="S13" s="2" t="inlineStr">
-        <is>
-          <t>47387</t>
-        </is>
-      </c>
-      <c r="T13" s="2" t="inlineStr">
-        <is>
-          <t>59479</t>
-        </is>
-      </c>
-      <c r="U13" s="2" t="inlineStr">
-        <is>
-          <t>3,65%</t>
-        </is>
-      </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>3,27%</t>
+          <t>3,08%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>4,11%</t>
+          <t>3,89%</t>
         </is>
       </c>
     </row>
@@ -1877,32 +1877,32 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>671506</t>
+          <t>698413</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>666382</t>
+          <t>694679</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>674965</t>
+          <t>702119</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>96,87%</t>
+          <t>97,03%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>96,13%</t>
+          <t>96,51%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>97,37%</t>
+          <t>97,55%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1912,67 +1912,67 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>722675</t>
+          <t>762482</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>717775</t>
+          <t>756993</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>727577</t>
+          <t>767238</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>95,87%</t>
+          <t>96,05%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>95,22%</t>
+          <t>95,36%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
+          <t>96,65%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>8206</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>1460895</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>1454634</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>1466999</t>
+        </is>
+      </c>
+      <c r="U14" s="2" t="inlineStr">
+        <is>
           <t>96,52%</t>
         </is>
       </c>
-      <c r="Q14" s="2" t="inlineStr">
-        <is>
-          <t>8206</t>
-        </is>
-      </c>
-      <c r="R14" s="2" t="inlineStr">
-        <is>
-          <t>1394181</t>
-        </is>
-      </c>
-      <c r="S14" s="2" t="inlineStr">
-        <is>
-          <t>1387486</t>
-        </is>
-      </c>
-      <c r="T14" s="2" t="inlineStr">
-        <is>
-          <t>1399578</t>
-        </is>
-      </c>
-      <c r="U14" s="2" t="inlineStr">
-        <is>
-          <t>96,35%</t>
-        </is>
-      </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>95,89%</t>
+          <t>96,11%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>96,73%</t>
+          <t>96,92%</t>
         </is>
       </c>
     </row>
@@ -1990,17 +1990,17 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>693181</t>
+          <t>719781</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>693181</t>
+          <t>719781</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>693181</t>
+          <t>719781</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2025,17 +2025,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>753784</t>
+          <t>793803</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>753784</t>
+          <t>793803</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>753784</t>
+          <t>793803</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2060,17 +2060,17 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>1446965</t>
+          <t>1513584</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>1446965</t>
+          <t>1513584</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>1446965</t>
+          <t>1513584</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2351,12 +2351,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1229</t>
+          <t>1251</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>8338</t>
+          <t>8380</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -2366,12 +2366,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,54%</t>
+          <t>0,55%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>3,66%</t>
+          <t>3,68%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -2386,12 +2386,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>11774</t>
+          <t>11473</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>23840</t>
+          <t>23636</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -2401,12 +2401,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>2,98%</t>
+          <t>2,91%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>6,04%</t>
+          <t>5,99%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -2421,12 +2421,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>14663</t>
+          <t>14664</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>28667</t>
+          <t>27695</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -2441,7 +2441,7 @@
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>4,6%</t>
+          <t>4,45%</t>
         </is>
       </c>
     </row>
@@ -2464,12 +2464,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>219469</t>
+          <t>219427</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>226578</t>
+          <t>226556</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -2479,12 +2479,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>96,34%</t>
+          <t>96,32%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>99,46%</t>
+          <t>99,45%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -2499,12 +2499,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>370920</t>
+          <t>371124</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>382986</t>
+          <t>383287</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -2514,12 +2514,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>93,96%</t>
+          <t>94,01%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>97,02%</t>
+          <t>97,09%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -2534,12 +2534,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>593900</t>
+          <t>594872</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>607904</t>
+          <t>607903</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -2549,7 +2549,7 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>95,4%</t>
+          <t>95,55%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
@@ -2694,12 +2694,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>26456</t>
+          <t>24075</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>69794</t>
+          <t>70010</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -2709,12 +2709,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,88%</t>
+          <t>1,71%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>4,95%</t>
+          <t>4,97%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -2729,12 +2729,12 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>50684</t>
+          <t>51566</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>362626</t>
+          <t>381946</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -2744,12 +2744,12 @@
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>3,66%</t>
+          <t>3,72%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>26,17%</t>
+          <t>27,56%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -2764,12 +2764,12 @@
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>96210</t>
+          <t>96347</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>446638</t>
+          <t>400303</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -2779,12 +2779,12 @@
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>3,44%</t>
+          <t>3,45%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>15,98%</t>
+          <t>14,32%</t>
         </is>
       </c>
     </row>
@@ -2807,12 +2807,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1339599</t>
+          <t>1339383</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1382937</t>
+          <t>1385318</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -2822,12 +2822,12 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>95,05%</t>
+          <t>95,03%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>98,12%</t>
+          <t>98,29%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -2842,12 +2842,12 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>1023185</t>
+          <t>1003865</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>1335127</t>
+          <t>1334245</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -2857,12 +2857,12 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>73,83%</t>
+          <t>72,44%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>96,34%</t>
+          <t>96,28%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -2877,12 +2877,12 @@
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>2348566</t>
+          <t>2394901</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>2698994</t>
+          <t>2698857</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -2892,12 +2892,12 @@
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>84,02%</t>
+          <t>85,68%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>96,56%</t>
+          <t>96,55%</t>
         </is>
       </c>
     </row>
@@ -3037,12 +3037,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>8491</t>
+          <t>7699</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>27331</t>
+          <t>26767</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -3052,12 +3052,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>1,85%</t>
+          <t>1,67%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>5,94%</t>
+          <t>5,82%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -3072,12 +3072,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>18363</t>
+          <t>18525</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>36033</t>
+          <t>35482</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -3087,12 +3087,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>4,14%</t>
+          <t>4,18%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>8,13%</t>
+          <t>8,0%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -3107,12 +3107,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>30561</t>
+          <t>29603</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>57178</t>
+          <t>55374</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -3122,12 +3122,12 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>3,38%</t>
+          <t>3,28%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>6,33%</t>
+          <t>6,13%</t>
         </is>
       </c>
     </row>
@@ -3150,12 +3150,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>432470</t>
+          <t>433034</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>451310</t>
+          <t>452102</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -3165,12 +3165,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>94,06%</t>
+          <t>94,18%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>98,15%</t>
+          <t>98,33%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -3185,12 +3185,12 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>407341</t>
+          <t>407892</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>425011</t>
+          <t>424849</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -3200,12 +3200,12 @@
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>91,87%</t>
+          <t>92,0%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>95,86%</t>
+          <t>95,82%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -3220,12 +3220,12 @@
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>845997</t>
+          <t>847801</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>872614</t>
+          <t>873572</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -3235,12 +3235,12 @@
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>93,67%</t>
+          <t>93,87%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>96,62%</t>
+          <t>96,72%</t>
         </is>
       </c>
     </row>
@@ -3380,12 +3380,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>44713</t>
+          <t>43320</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>91709</t>
+          <t>92289</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -3395,12 +3395,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,13%</t>
+          <t>2,07%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>4,37%</t>
+          <t>4,4%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -3415,12 +3415,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>93327</t>
+          <t>91379</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>432215</t>
+          <t>427902</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -3430,12 +3430,12 @@
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>4,2%</t>
+          <t>4,11%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>19,43%</t>
+          <t>19,24%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -3450,12 +3450,12 @@
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>157517</t>
+          <t>155092</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>496624</t>
+          <t>469883</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -3465,12 +3465,12 @@
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>3,65%</t>
+          <t>3,59%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>11,49%</t>
+          <t>10,87%</t>
         </is>
       </c>
     </row>
@@ -3493,12 +3493,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>2005292</t>
+          <t>2004712</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>2052288</t>
+          <t>2053681</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -3508,12 +3508,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>95,63%</t>
+          <t>95,6%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>97,87%</t>
+          <t>97,93%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -3528,12 +3528,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>1791730</t>
+          <t>1796043</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>2130618</t>
+          <t>2132566</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -3543,12 +3543,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>80,57%</t>
+          <t>80,76%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>95,8%</t>
+          <t>95,89%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -3563,12 +3563,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>3824322</t>
+          <t>3851063</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>4163429</t>
+          <t>4165854</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -3578,12 +3578,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>88,51%</t>
+          <t>89,13%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>96,35%</t>
+          <t>96,41%</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/CONS_ALER-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/CONS_ALER-Estudios-trans_orig.xlsx
@@ -7,9 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Andalucia" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C.Valenciana" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Andalucia" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C.Valenciana" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -545,7 +545,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para la alergía o el asma en País Vasco (tasa de respuesta: 99,45%)</t>
+          <t>Consumo de medicamentos para la alergía o el asma en Andalucia (tasa de respuesta: 99,86%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -730,37 +730,37 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>3092</t>
+          <t>4079</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1881</t>
+          <t>1369</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>4765</t>
+          <t>9230</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>3,75%</t>
+          <t>1,6%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,28%</t>
+          <t>0,54%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>5,77%</t>
+          <t>3,62%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -770,67 +770,67 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>5128</t>
+          <t>19031</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>3523</t>
+          <t>13063</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>7462</t>
+          <t>26401</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>4,22%</t>
+          <t>4,4%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>2,9%</t>
+          <t>3,02%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>6,14%</t>
+          <t>6,11%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>36</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>8220</t>
+          <t>23109</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>6062</t>
+          <t>16378</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>11010</t>
+          <t>30906</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>4,03%</t>
+          <t>3,36%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>2,97%</t>
+          <t>2,38%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>5,4%</t>
+          <t>4,5%</t>
         </is>
       </c>
     </row>
@@ -843,107 +843,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>484</t>
+          <t>284</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>79450</t>
+          <t>250818</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>77777</t>
+          <t>245667</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>80661</t>
+          <t>253528</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>96,25%</t>
+          <t>98,4%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>94,23%</t>
+          <t>96,38%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>97,72%</t>
+          <t>99,46%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>724</t>
+          <t>663</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>116324</t>
+          <t>413235</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>113990</t>
+          <t>405865</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>117929</t>
+          <t>419203</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>95,78%</t>
+          <t>95,6%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>93,86%</t>
+          <t>93,89%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>97,1%</t>
+          <t>96,98%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>1208</t>
+          <t>947</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>195774</t>
+          <t>664054</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>192984</t>
+          <t>656257</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>197932</t>
+          <t>670785</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>95,97%</t>
+          <t>96,64%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>94,6%</t>
+          <t>95,5%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>97,03%</t>
+          <t>97,62%</t>
         </is>
       </c>
     </row>
@@ -956,22 +956,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>503</t>
+          <t>289</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>82542</t>
+          <t>254897</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>82542</t>
+          <t>254897</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>82542</t>
+          <t>254897</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -991,22 +991,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>755</t>
+          <t>694</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>121452</t>
+          <t>432266</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>121452</t>
+          <t>432266</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>121452</t>
+          <t>432266</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -1026,22 +1026,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>1258</t>
+          <t>983</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>203994</t>
+          <t>687163</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>203994</t>
+          <t>687163</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>203994</t>
+          <t>687163</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -1073,107 +1073,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>42</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>12659</t>
+          <t>49653</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>10013</t>
+          <t>35612</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>16206</t>
+          <t>67765</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,74%</t>
+          <t>3,86%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,17%</t>
+          <t>2,77%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,51%</t>
+          <t>5,26%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>85</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>18462</t>
+          <t>66590</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>15200</t>
+          <t>53627</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>22891</t>
+          <t>82017</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>4,15%</t>
+          <t>5,24%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>3,42%</t>
+          <t>4,22%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>5,15%</t>
+          <t>6,45%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>127</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>31121</t>
+          <t>116244</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>27216</t>
+          <t>97152</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>36742</t>
+          <t>140700</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>3,43%</t>
+          <t>4,54%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>3,0%</t>
+          <t>3,8%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>4,06%</t>
+          <t>5,5%</t>
         </is>
       </c>
     </row>
@@ -1186,107 +1186,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2569</t>
+          <t>1069</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>449020</t>
+          <t>1238034</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>445473</t>
+          <t>1219922</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>451666</t>
+          <t>1252075</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>97,26%</t>
+          <t>96,14%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>96,49%</t>
+          <t>94,74%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>97,83%</t>
+          <t>97,23%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>2399</t>
+          <t>1554</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>425895</t>
+          <t>1204151</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>421466</t>
+          <t>1188724</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>429157</t>
+          <t>1217114</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>95,85%</t>
+          <t>94,76%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>94,85%</t>
+          <t>93,55%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>96,58%</t>
+          <t>95,78%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>4968</t>
+          <t>2623</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>874914</t>
+          <t>2442184</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>869293</t>
+          <t>2417728</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>878819</t>
+          <t>2461276</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>96,57%</t>
+          <t>95,46%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>95,94%</t>
+          <t>94,5%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>97,0%</t>
+          <t>96,2%</t>
         </is>
       </c>
     </row>
@@ -1299,22 +1299,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2647</t>
+          <t>1111</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>461679</t>
+          <t>1287687</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>461679</t>
+          <t>1287687</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>461679</t>
+          <t>1287687</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1334,22 +1334,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2503</t>
+          <t>1639</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>444357</t>
+          <t>1270741</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>444357</t>
+          <t>1270741</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>444357</t>
+          <t>1270741</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1369,22 +1369,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>5150</t>
+          <t>2750</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>906035</t>
+          <t>2558428</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>906035</t>
+          <t>2558428</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>906035</t>
+          <t>2558428</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1416,107 +1416,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>5616</t>
+          <t>19037</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3781</t>
+          <t>11311</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>8070</t>
+          <t>30873</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>3,2%</t>
+          <t>3,73%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>2,15%</t>
+          <t>2,22%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>4,6%</t>
+          <t>6,06%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>39</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>7731</t>
+          <t>28835</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>5618</t>
+          <t>20286</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>10922</t>
+          <t>38930</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>3,39%</t>
+          <t>5,81%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>2,46%</t>
+          <t>4,09%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>4,79%</t>
+          <t>7,85%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>55</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>13347</t>
+          <t>47872</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>10237</t>
+          <t>34812</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>16575</t>
+          <t>62063</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>3,31%</t>
+          <t>4,76%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>2,54%</t>
+          <t>3,46%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>4,11%</t>
+          <t>6,17%</t>
         </is>
       </c>
     </row>
@@ -1529,107 +1529,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>876</t>
+          <t>471</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>169945</t>
+          <t>490842</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>167491</t>
+          <t>479006</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>171780</t>
+          <t>498568</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>96,8%</t>
+          <t>96,27%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>95,4%</t>
+          <t>93,94%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>97,85%</t>
+          <t>97,78%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1154</t>
+          <t>627</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>220263</t>
+          <t>467071</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>217072</t>
+          <t>456976</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>222376</t>
+          <t>475620</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>96,61%</t>
+          <t>94,19%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>95,21%</t>
+          <t>92,15%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>97,54%</t>
+          <t>95,91%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>2030</t>
+          <t>1098</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>390208</t>
+          <t>957914</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>386980</t>
+          <t>943723</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>393318</t>
+          <t>970974</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>96,69%</t>
+          <t>95,24%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>95,89%</t>
+          <t>93,83%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>97,46%</t>
+          <t>96,54%</t>
         </is>
       </c>
     </row>
@@ -1642,22 +1642,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>907</t>
+          <t>487</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>175561</t>
+          <t>509879</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>175561</t>
+          <t>509879</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>175561</t>
+          <t>509879</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1677,22 +1677,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>1199</t>
+          <t>666</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>227994</t>
+          <t>495906</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>227994</t>
+          <t>495906</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>227994</t>
+          <t>495906</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -1712,22 +1712,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>2106</t>
+          <t>1153</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>403555</t>
+          <t>1005786</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>403555</t>
+          <t>1005786</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>403555</t>
+          <t>1005786</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -1759,107 +1759,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>128</t>
+          <t>63</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>21368</t>
+          <t>72768</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>17662</t>
+          <t>57793</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>25102</t>
+          <t>95937</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,97%</t>
+          <t>3,55%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,45%</t>
+          <t>2,82%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>3,49%</t>
+          <t>4,67%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>155</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>31321</t>
+          <t>114456</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>26565</t>
+          <t>97545</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>36810</t>
+          <t>133790</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>3,95%</t>
+          <t>5,21%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>3,35%</t>
+          <t>4,44%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>4,64%</t>
+          <t>6,08%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>308</t>
+          <t>218</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>52689</t>
+          <t>187224</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>46585</t>
+          <t>164044</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>58950</t>
+          <t>218405</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>3,48%</t>
+          <t>4,4%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>3,08%</t>
+          <t>3,86%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>3,89%</t>
+          <t>5,14%</t>
         </is>
       </c>
     </row>
@@ -1872,107 +1872,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>3929</t>
+          <t>1824</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>698413</t>
+          <t>1979696</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>694679</t>
+          <t>1956527</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>702119</t>
+          <t>1994671</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>97,03%</t>
+          <t>96,45%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>96,51%</t>
+          <t>95,33%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>97,55%</t>
+          <t>97,18%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>4277</t>
+          <t>2844</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>762482</t>
+          <t>2084457</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>756993</t>
+          <t>2065123</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>767238</t>
+          <t>2101368</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>96,05%</t>
+          <t>94,79%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>95,36%</t>
+          <t>93,92%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>96,65%</t>
+          <t>95,56%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>8206</t>
+          <t>4668</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>1460895</t>
+          <t>4064152</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>1454634</t>
+          <t>4032971</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>1466999</t>
+          <t>4087332</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>96,52%</t>
+          <t>95,6%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>96,11%</t>
+          <t>94,86%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>96,92%</t>
+          <t>96,14%</t>
         </is>
       </c>
     </row>
@@ -1985,22 +1985,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>4057</t>
+          <t>1887</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>719781</t>
+          <t>2052464</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>719781</t>
+          <t>2052464</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>719781</t>
+          <t>2052464</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2020,22 +2020,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>4457</t>
+          <t>2999</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>793803</t>
+          <t>2198913</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>793803</t>
+          <t>2198913</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>793803</t>
+          <t>2198913</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2055,22 +2055,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>8514</t>
+          <t>4886</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>1513584</t>
+          <t>4251376</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>1513584</t>
+          <t>4251376</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>1513584</t>
+          <t>4251376</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2156,7 +2156,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para la alergía o el asma en Andalucia (tasa de respuesta: 99,86%)</t>
+          <t>Consumo de medicamentos para la alergía o el asma en C.Valenciana (tasa de respuesta: 99,74%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -2341,107 +2341,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>25</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>3705</t>
+          <t>8526</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1251</t>
+          <t>5459</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>8380</t>
+          <t>13822</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>1,63%</t>
+          <t>3,95%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,55%</t>
+          <t>2,53%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>3,68%</t>
+          <t>6,41%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>44</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>16945</t>
+          <t>16781</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>11473</t>
+          <t>12046</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>23636</t>
+          <t>22299</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>4,29%</t>
+          <t>6,13%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>2,91%</t>
+          <t>4,4%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>5,99%</t>
+          <t>8,15%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>69</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>20650</t>
+          <t>25307</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>14664</t>
+          <t>19633</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>27695</t>
+          <t>32772</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>3,32%</t>
+          <t>5,17%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>2,36%</t>
+          <t>4,01%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>4,45%</t>
+          <t>6,7%</t>
         </is>
       </c>
     </row>
@@ -2454,107 +2454,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>528</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>224102</t>
+          <t>207270</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>219427</t>
+          <t>201974</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>226556</t>
+          <t>210337</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>98,37%</t>
+          <t>96,05%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>96,32%</t>
+          <t>93,59%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>99,45%</t>
+          <t>97,47%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>663</t>
+          <t>600</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>377815</t>
+          <t>256900</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>371124</t>
+          <t>251382</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>383287</t>
+          <t>261635</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>95,71%</t>
+          <t>93,87%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>94,01%</t>
+          <t>91,85%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>97,09%</t>
+          <t>95,6%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>947</t>
+          <t>1128</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>601917</t>
+          <t>464171</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>594872</t>
+          <t>456706</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>607903</t>
+          <t>469845</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>96,68%</t>
+          <t>94,83%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>95,55%</t>
+          <t>93,3%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>97,64%</t>
+          <t>95,99%</t>
         </is>
       </c>
     </row>
@@ -2567,22 +2567,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>289</t>
+          <t>553</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>227807</t>
+          <t>215796</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>227807</t>
+          <t>215796</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>227807</t>
+          <t>215796</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -2602,22 +2602,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>694</t>
+          <t>644</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>394760</t>
+          <t>273681</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>394760</t>
+          <t>273681</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>394760</t>
+          <t>273681</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -2637,22 +2637,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>983</t>
+          <t>1197</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>622567</t>
+          <t>489478</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>622567</t>
+          <t>489478</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>622567</t>
+          <t>489478</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -2684,107 +2684,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>81</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>48372</t>
+          <t>42517</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>24075</t>
+          <t>33997</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>70010</t>
+          <t>52826</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,43%</t>
+          <t>4,93%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,71%</t>
+          <t>3,94%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>4,97%</t>
+          <t>6,13%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>97</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>124785</t>
+          <t>55142</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>51566</t>
+          <t>45460</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>381946</t>
+          <t>68601</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>9,0%</t>
+          <t>6,35%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>3,72%</t>
+          <t>5,24%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>27,56%</t>
+          <t>7,9%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>178</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>173157</t>
+          <t>97659</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>96347</t>
+          <t>84406</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>400303</t>
+          <t>112667</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>6,19%</t>
+          <t>5,64%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>3,45%</t>
+          <t>4,88%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>14,32%</t>
+          <t>6,51%</t>
         </is>
       </c>
     </row>
@@ -2797,107 +2797,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1069</t>
+          <t>1555</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1361021</t>
+          <t>819501</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1339383</t>
+          <t>809192</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1385318</t>
+          <t>828021</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>96,57%</t>
+          <t>95,07%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>95,03%</t>
+          <t>93,87%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>98,29%</t>
+          <t>96,06%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>1554</t>
+          <t>1426</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>1261026</t>
+          <t>813038</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>1003865</t>
+          <t>799579</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>1334245</t>
+          <t>822720</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>91,0%</t>
+          <t>93,65%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>72,44%</t>
+          <t>92,1%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>96,28%</t>
+          <t>94,76%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>2623</t>
+          <t>2981</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>2622047</t>
+          <t>1632539</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>2394901</t>
+          <t>1617531</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>2698857</t>
+          <t>1645792</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>93,81%</t>
+          <t>94,36%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>85,68%</t>
+          <t>93,49%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>96,55%</t>
+          <t>95,12%</t>
         </is>
       </c>
     </row>
@@ -2910,22 +2910,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1111</t>
+          <t>1636</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1409393</t>
+          <t>862018</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1409393</t>
+          <t>862018</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1409393</t>
+          <t>862018</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -2945,22 +2945,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1639</t>
+          <t>1523</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1385811</t>
+          <t>868180</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1385811</t>
+          <t>868180</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>1385811</t>
+          <t>868180</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -2980,22 +2980,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>2750</t>
+          <t>3159</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>2795204</t>
+          <t>1730198</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>2795204</t>
+          <t>1730198</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>2795204</t>
+          <t>1730198</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -3027,107 +3027,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>14902</t>
+          <t>14326</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>7699</t>
+          <t>9027</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>26767</t>
+          <t>22773</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>3,24%</t>
+          <t>3,78%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>1,67%</t>
+          <t>2,38%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>5,82%</t>
+          <t>6,02%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>45</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>26034</t>
+          <t>27444</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>18525</t>
+          <t>20473</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>35482</t>
+          <t>37150</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>5,87%</t>
+          <t>6,58%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>4,18%</t>
+          <t>4,91%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>8,0%</t>
+          <t>8,91%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>68</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>40936</t>
+          <t>41770</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>29603</t>
+          <t>31804</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>55374</t>
+          <t>53671</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>4,53%</t>
+          <t>5,25%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>3,28%</t>
+          <t>4,0%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>6,13%</t>
+          <t>6,75%</t>
         </is>
       </c>
     </row>
@@ -3140,107 +3140,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>471</t>
+          <t>632</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>444899</t>
+          <t>364227</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>433034</t>
+          <t>355780</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>452102</t>
+          <t>369526</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>96,76%</t>
+          <t>96,22%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>94,18%</t>
+          <t>93,98%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>98,33%</t>
+          <t>97,62%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>627</t>
+          <t>655</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>417340</t>
+          <t>389431</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>407892</t>
+          <t>379725</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>424849</t>
+          <t>396402</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>94,13%</t>
+          <t>93,42%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>92,0%</t>
+          <t>91,09%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>95,82%</t>
+          <t>95,09%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>1098</t>
+          <t>1287</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>862239</t>
+          <t>753658</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>847801</t>
+          <t>741757</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>873572</t>
+          <t>763624</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>95,47%</t>
+          <t>94,75%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>93,87%</t>
+          <t>93,25%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>96,72%</t>
+          <t>96,0%</t>
         </is>
       </c>
     </row>
@@ -3253,22 +3253,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>487</t>
+          <t>655</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>459801</t>
+          <t>378553</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>459801</t>
+          <t>378553</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>459801</t>
+          <t>378553</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -3288,22 +3288,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>666</t>
+          <t>700</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>443374</t>
+          <t>416875</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>443374</t>
+          <t>416875</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>443374</t>
+          <t>416875</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -3323,22 +3323,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>1153</t>
+          <t>1355</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>903175</t>
+          <t>795428</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>903175</t>
+          <t>795428</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>903175</t>
+          <t>795428</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -3370,107 +3370,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>129</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>66979</t>
+          <t>65369</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>43320</t>
+          <t>53399</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>92289</t>
+          <t>78294</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>3,19%</t>
+          <t>4,49%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,07%</t>
+          <t>3,67%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>4,4%</t>
+          <t>5,38%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>186</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>167764</t>
+          <t>99367</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>91379</t>
+          <t>85129</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>427902</t>
+          <t>116453</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>7,54%</t>
+          <t>6,37%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>4,11%</t>
+          <t>5,46%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>19,24%</t>
+          <t>7,47%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>315</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>234744</t>
+          <t>164736</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>155092</t>
+          <t>146072</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>469883</t>
+          <t>184374</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>5,43%</t>
+          <t>5,46%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>3,59%</t>
+          <t>4,84%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>10,87%</t>
+          <t>6,12%</t>
         </is>
       </c>
     </row>
@@ -3483,107 +3483,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>1824</t>
+          <t>2715</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>2030022</t>
+          <t>1390998</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>2004712</t>
+          <t>1378073</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>2053681</t>
+          <t>1402968</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>96,81%</t>
+          <t>95,51%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>95,6%</t>
+          <t>94,62%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>97,93%</t>
+          <t>96,33%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>2844</t>
+          <t>2681</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>2056181</t>
+          <t>1459370</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>1796043</t>
+          <t>1442284</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>2132566</t>
+          <t>1473608</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>92,46%</t>
+          <t>93,63%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>80,76%</t>
+          <t>92,53%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>95,89%</t>
+          <t>94,54%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>4668</t>
+          <t>5396</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>4086202</t>
+          <t>2850368</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>3851063</t>
+          <t>2830730</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>4165854</t>
+          <t>2869032</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>94,57%</t>
+          <t>94,54%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>89,13%</t>
+          <t>93,88%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>96,41%</t>
+          <t>95,16%</t>
         </is>
       </c>
     </row>
@@ -3596,22 +3596,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1887</t>
+          <t>2844</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>2097001</t>
+          <t>1456367</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>2097001</t>
+          <t>1456367</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2097001</t>
+          <t>1456367</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -3631,22 +3631,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>2999</t>
+          <t>2867</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>2223945</t>
+          <t>1558737</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>2223945</t>
+          <t>1558737</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>2223945</t>
+          <t>1558737</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -3666,22 +3666,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>4886</t>
+          <t>5711</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>4320946</t>
+          <t>3015104</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>4320946</t>
+          <t>3015104</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>4320946</t>
+          <t>3015104</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -3767,7 +3767,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para la alergía o el asma en C.Valenciana (tasa de respuesta: 99,74%)</t>
+          <t>Consumo de medicamentos para la alergía o el asma en País Vasco (tasa de respuesta: 99,45%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3952,107 +3952,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>19</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>8526</t>
+          <t>3092</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>5459</t>
+          <t>1881</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>13822</t>
+          <t>4765</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>3,95%</t>
+          <t>3,75%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,53%</t>
+          <t>2,28%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>6,41%</t>
+          <t>5,77%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>31</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>16781</t>
+          <t>5128</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>12046</t>
+          <t>3523</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>22299</t>
+          <t>7462</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>6,13%</t>
+          <t>4,22%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>4,4%</t>
+          <t>2,9%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>8,15%</t>
+          <t>6,14%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>50</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>25307</t>
+          <t>8220</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>19633</t>
+          <t>6062</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>32772</t>
+          <t>11010</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>5,17%</t>
+          <t>4,03%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>4,01%</t>
+          <t>2,97%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>6,7%</t>
+          <t>5,4%</t>
         </is>
       </c>
     </row>
@@ -4065,107 +4065,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>528</t>
+          <t>484</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>207270</t>
+          <t>79450</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>201974</t>
+          <t>77777</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>210337</t>
+          <t>80661</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>96,05%</t>
+          <t>96,25%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>93,59%</t>
+          <t>94,23%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>97,47%</t>
+          <t>97,72%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>600</t>
+          <t>724</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>256900</t>
+          <t>116324</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>251382</t>
+          <t>113990</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>261635</t>
+          <t>117929</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>93,87%</t>
+          <t>95,78%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>91,85%</t>
+          <t>93,86%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>95,6%</t>
+          <t>97,1%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>1128</t>
+          <t>1208</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>464171</t>
+          <t>195774</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>456706</t>
+          <t>192984</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>469845</t>
+          <t>197932</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>94,83%</t>
+          <t>95,97%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>93,3%</t>
+          <t>94,6%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>95,99%</t>
+          <t>97,03%</t>
         </is>
       </c>
     </row>
@@ -4178,22 +4178,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>553</t>
+          <t>503</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>215796</t>
+          <t>82542</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>215796</t>
+          <t>82542</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>215796</t>
+          <t>82542</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -4213,22 +4213,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>644</t>
+          <t>755</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>273681</t>
+          <t>121452</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>273681</t>
+          <t>121452</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>273681</t>
+          <t>121452</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -4248,22 +4248,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>1197</t>
+          <t>1258</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>489478</t>
+          <t>203994</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>489478</t>
+          <t>203994</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>489478</t>
+          <t>203994</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -4295,107 +4295,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>78</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>42517</t>
+          <t>12659</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>33997</t>
+          <t>10013</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>52826</t>
+          <t>16206</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>4,93%</t>
+          <t>2,74%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,94%</t>
+          <t>2,17%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>6,13%</t>
+          <t>3,51%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>104</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>55142</t>
+          <t>18462</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>45460</t>
+          <t>15200</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>68601</t>
+          <t>22891</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>6,35%</t>
+          <t>4,15%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>5,24%</t>
+          <t>3,42%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>7,9%</t>
+          <t>5,15%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>182</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>97659</t>
+          <t>31121</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>84406</t>
+          <t>27216</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>112667</t>
+          <t>36742</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>5,64%</t>
+          <t>3,43%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>4,88%</t>
+          <t>3,0%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>6,51%</t>
+          <t>4,06%</t>
         </is>
       </c>
     </row>
@@ -4408,107 +4408,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1555</t>
+          <t>2569</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>819501</t>
+          <t>449020</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>809192</t>
+          <t>445473</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>828021</t>
+          <t>451666</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>95,07%</t>
+          <t>97,26%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>93,87%</t>
+          <t>96,49%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>96,06%</t>
+          <t>97,83%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>1426</t>
+          <t>2399</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>813038</t>
+          <t>425895</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>799579</t>
+          <t>421466</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>822720</t>
+          <t>429157</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>93,65%</t>
+          <t>95,85%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>92,1%</t>
+          <t>94,85%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>94,76%</t>
+          <t>96,58%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>2981</t>
+          <t>4968</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>1632539</t>
+          <t>874914</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>1617531</t>
+          <t>869293</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>1645792</t>
+          <t>878819</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>94,36%</t>
+          <t>96,57%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>93,49%</t>
+          <t>95,94%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>95,12%</t>
+          <t>97,0%</t>
         </is>
       </c>
     </row>
@@ -4521,22 +4521,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1636</t>
+          <t>2647</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>862018</t>
+          <t>461679</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>862018</t>
+          <t>461679</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>862018</t>
+          <t>461679</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -4556,22 +4556,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1523</t>
+          <t>2503</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>868180</t>
+          <t>444357</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>868180</t>
+          <t>444357</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>868180</t>
+          <t>444357</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -4591,22 +4591,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>3159</t>
+          <t>5150</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>1730198</t>
+          <t>906035</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>1730198</t>
+          <t>906035</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>1730198</t>
+          <t>906035</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -4638,37 +4638,37 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>31</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>14326</t>
+          <t>5616</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>9027</t>
+          <t>3781</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>22773</t>
+          <t>8070</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>3,78%</t>
+          <t>3,2%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>2,38%</t>
+          <t>2,15%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>6,02%</t>
+          <t>4,6%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -4678,67 +4678,67 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>27444</t>
+          <t>7731</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>20473</t>
+          <t>5618</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>37150</t>
+          <t>10922</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>6,58%</t>
+          <t>3,39%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>4,91%</t>
+          <t>2,46%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>8,91%</t>
+          <t>4,79%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>76</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>41770</t>
+          <t>13347</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>31804</t>
+          <t>10237</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>53671</t>
+          <t>16575</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>5,25%</t>
+          <t>3,31%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>4,0%</t>
+          <t>2,54%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>6,75%</t>
+          <t>4,11%</t>
         </is>
       </c>
     </row>
@@ -4751,107 +4751,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>632</t>
+          <t>876</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>364227</t>
+          <t>169945</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>355780</t>
+          <t>167491</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>369526</t>
+          <t>171780</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>96,22%</t>
+          <t>96,8%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>93,98%</t>
+          <t>95,4%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>97,62%</t>
+          <t>97,85%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>655</t>
+          <t>1154</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>389431</t>
+          <t>220263</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>379725</t>
+          <t>217072</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>396402</t>
+          <t>222376</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>93,42%</t>
+          <t>96,61%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>91,09%</t>
+          <t>95,21%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>95,09%</t>
+          <t>97,54%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>1287</t>
+          <t>2030</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>753658</t>
+          <t>390208</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>741757</t>
+          <t>386980</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>763624</t>
+          <t>393318</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>94,75%</t>
+          <t>96,69%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>93,25%</t>
+          <t>95,89%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>96,0%</t>
+          <t>97,46%</t>
         </is>
       </c>
     </row>
@@ -4864,22 +4864,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>655</t>
+          <t>907</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>378553</t>
+          <t>175561</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>378553</t>
+          <t>175561</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>378553</t>
+          <t>175561</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -4899,22 +4899,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>700</t>
+          <t>1199</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>416875</t>
+          <t>227994</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>416875</t>
+          <t>227994</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>416875</t>
+          <t>227994</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -4934,22 +4934,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>1355</t>
+          <t>2106</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>795428</t>
+          <t>403555</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>795428</t>
+          <t>403555</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>795428</t>
+          <t>403555</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -4981,107 +4981,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>129</t>
+          <t>128</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>65369</t>
+          <t>21368</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>53399</t>
+          <t>17662</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>78294</t>
+          <t>25102</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>4,49%</t>
+          <t>2,97%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>3,67%</t>
+          <t>2,45%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>5,38%</t>
+          <t>3,49%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>180</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>99367</t>
+          <t>31321</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>85129</t>
+          <t>26565</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>116453</t>
+          <t>36810</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>6,37%</t>
+          <t>3,95%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>5,46%</t>
+          <t>3,35%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>7,47%</t>
+          <t>4,64%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>308</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>164736</t>
+          <t>52689</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>146072</t>
+          <t>46585</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>184374</t>
+          <t>58950</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>5,46%</t>
+          <t>3,48%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>4,84%</t>
+          <t>3,08%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>6,12%</t>
+          <t>3,89%</t>
         </is>
       </c>
     </row>
@@ -5094,107 +5094,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>2715</t>
+          <t>3929</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>1390998</t>
+          <t>698413</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>1378073</t>
+          <t>694679</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>1402968</t>
+          <t>702119</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>95,51%</t>
+          <t>97,03%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>94,62%</t>
+          <t>96,51%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>96,33%</t>
+          <t>97,55%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>2681</t>
+          <t>4277</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>1459370</t>
+          <t>762482</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>1442284</t>
+          <t>756993</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>1473608</t>
+          <t>767238</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>93,63%</t>
+          <t>96,05%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>92,53%</t>
+          <t>95,36%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>94,54%</t>
+          <t>96,65%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>5396</t>
+          <t>8206</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>2850368</t>
+          <t>1460895</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>2830730</t>
+          <t>1454634</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>2869032</t>
+          <t>1466999</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>94,54%</t>
+          <t>96,52%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>93,88%</t>
+          <t>96,11%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>95,16%</t>
+          <t>96,92%</t>
         </is>
       </c>
     </row>
@@ -5207,22 +5207,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2844</t>
+          <t>4057</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1456367</t>
+          <t>719781</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1456367</t>
+          <t>719781</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1456367</t>
+          <t>719781</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -5242,22 +5242,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>2867</t>
+          <t>4457</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>1558737</t>
+          <t>793803</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>1558737</t>
+          <t>793803</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>1558737</t>
+          <t>793803</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -5277,22 +5277,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>5711</t>
+          <t>8514</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>3015104</t>
+          <t>1513584</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>3015104</t>
+          <t>1513584</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>3015104</t>
+          <t>1513584</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
